--- a/expense/独轮组/2024-06-18/汇总表.xlsx
+++ b/expense/独轮组/2024-06-18/汇总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>编号</t>
   </si>
@@ -49,15 +49,9 @@
     <t>总额</t>
   </si>
   <si>
-    <t>出入库</t>
-  </si>
-  <si>
     <t>收款人</t>
   </si>
   <si>
-    <t>支出单号</t>
-  </si>
-  <si>
     <t>状态</t>
   </si>
   <si>
@@ -77,6 +71,9 @@
   </si>
   <si>
     <t>杨奕晟</t>
+  </si>
+  <si>
+    <t>收款人已确认</t>
   </si>
 </sst>
 </file>
@@ -84,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -141,11 +138,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,52 +162,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,33 +223,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,31 +275,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,25 +407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,128 +459,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -487,19 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -513,37 +497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,11 +528,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,157 +566,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,7 +744,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,10 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,10 +1297,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1333,12 +1314,11 @@
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="13" width="7.375" customWidth="1"/>
-    <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="15" max="15" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,26 +1358,20 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1406,28 +1380,28 @@
         <v>4946</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9">
         <f>SUM(F2)</f>
         <v>4946</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="6">
         <f>SUM(F2:F2)</f>
         <v>4946</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
@@ -1435,7 +1409,7 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:N2">
+  <conditionalFormatting sqref="B2:L2">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>

--- a/expense/独轮组/2024-06-18/汇总表.xlsx
+++ b/expense/独轮组/2024-06-18/汇总表.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>组别</t>
-  </si>
-  <si>
     <t>日期(小注)</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>状态</t>
-  </si>
-  <si>
-    <t>独轮组</t>
   </si>
   <si>
     <t>2024-04-06</t>
@@ -81,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,29 +119,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,13 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -178,83 +203,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,43 +311,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,109 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,8 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +492,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,35 +528,35 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,168 +575,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -753,11 +747,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,28 +1291,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="53.2166666666667" customWidth="1"/>
-    <col min="5" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="5.375" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="10" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="10.0583333333333" customWidth="1"/>
+    <col min="3" max="3" width="53.2166666666667" customWidth="1"/>
+    <col min="4" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,10 +1324,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1343,64 +1336,58 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4946</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="I2" s="9">
+        <f>SUM(E2)</f>
         <v>4946</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="6">
+        <f>SUM(E2:E2)</f>
+        <v>4946</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="9">
-        <f>SUM(F2)</f>
-        <v>4946</v>
-      </c>
-      <c r="K2" s="6">
-        <f>SUM(F2:F2)</f>
-        <v>4946</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1409,19 +1396,20 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2">
+  <conditionalFormatting sqref="B2:K2">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="19届智能车竞赛O2车模独轮平衡组TC377核心板学习套件（RTK）"/>
-    <hyperlink ref="E2" r:id="rId2" display="订单"/>
-    <hyperlink ref="G2" r:id="rId3" display="付款记录1"/>
-    <hyperlink ref="H2" r:id="rId4" display="发票"/>
-    <hyperlink ref="I2" r:id="rId5" display="验真1"/>
+    <hyperlink ref="C2" r:id="rId1" display="19届智能车竞赛O2车模独轮平衡组TC377核心板学习套件（RTK）"/>
+    <hyperlink ref="D2" r:id="rId2" display="订单"/>
+    <hyperlink ref="F2" r:id="rId3" display="付款记录1"/>
+    <hyperlink ref="G2" r:id="rId4" display="发票"/>
+    <hyperlink ref="H2" r:id="rId5" display="验真1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>